--- a/php_action/subidas/STOCK LG 20.05 carga.xlsx
+++ b/php_action/subidas/STOCK LG 20.05 carga.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">ACEITE DE COCO x 230ML</t>
   </si>
   <si>
-    <t xml:space="preserve">UNIDAD (BIENES)</t>
+    <t xml:space="preserve">UNIDAD </t>
   </si>
   <si>
     <t xml:space="preserve">7756911199397</t>
@@ -372,6 +372,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -650,11 +651,14 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.58"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -684,7 +688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
@@ -698,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
@@ -712,7 +716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
@@ -726,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
@@ -754,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
@@ -768,7 +772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
@@ -782,7 +786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
@@ -796,7 +800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
@@ -810,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
@@ -824,7 +828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
@@ -894,7 +898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>17</v>
       </c>
@@ -908,7 +912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>18</v>
       </c>
@@ -936,7 +940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>20</v>
       </c>
@@ -950,7 +954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>21</v>
       </c>
@@ -964,7 +968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>22</v>
       </c>
@@ -978,7 +982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>23</v>
       </c>
@@ -992,7 +996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
         <v>24</v>
       </c>
@@ -1006,7 +1010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
         <v>25</v>
       </c>
@@ -1034,7 +1038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
         <v>27</v>
       </c>
@@ -1048,7 +1052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
         <v>28</v>
       </c>
@@ -1062,7 +1066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
         <v>29</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
         <v>30</v>
       </c>
@@ -1090,7 +1094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
         <v>31</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
         <v>32</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
         <v>40</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
         <v>41</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
         <v>42</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
         <v>43</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
         <v>44</v>
       </c>
